--- a/vtapi/src/vt-template.xlsx
+++ b/vtapi/src/vt-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/huy_nq210427_sis_hust_edu_vn/Documents/Documents/GitHub/oop-bee/vtapi/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nampr\OneDrive\Documents\java\Project1\vtapi\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="109_{911F75F5-7FB3-4DFB-B3D8-321D1CE1239C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE37CDD3-F055-4F3F-8E19-39BFC15D51F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDDFD98-EA83-4A85-8858-4F0201CA4376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{62811E85-ECC8-4D39-A5AD-30BFABDD8343}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62811E85-ECC8-4D39-A5AD-30BFABDD8343}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -9699,10 +9699,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10004,22 +10000,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.73046875" style="3"/>
-    <col min="4" max="5" width="10.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73046875" style="3"/>
-    <col min="9" max="9" width="8.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.53125" style="3" customWidth="1"/>
-    <col min="11" max="15" width="8.73046875" style="3"/>
-    <col min="16" max="16" width="10.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="15.265625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.73046875" style="3"/>
+    <col min="1" max="3" width="8.7109375" style="3"/>
+    <col min="4" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="3"/>
+    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="3" customWidth="1"/>
+    <col min="11" max="15" width="8.7109375" style="3"/>
+    <col min="16" max="16" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="15.28515625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -10036,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -10062,7 +10058,7 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -10088,7 +10084,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -10114,7 +10110,7 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -10140,7 +10136,7 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -10166,7 +10162,7 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -10192,7 +10188,7 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -10218,7 +10214,7 @@
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -10244,7 +10240,7 @@
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -10270,7 +10266,7 @@
       <c r="W10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -10296,7 +10292,7 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -10322,7 +10318,7 @@
       <c r="W12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -10348,7 +10344,7 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -10374,7 +10370,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -10400,7 +10396,7 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -10426,7 +10422,7 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -10452,7 +10448,7 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -10478,7 +10474,7 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -10504,7 +10500,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10530,7 +10526,7 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -10556,7 +10552,7 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -10582,7 +10578,7 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -10608,7 +10604,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -10634,7 +10630,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -10660,7 +10656,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -10686,7 +10682,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -10712,7 +10708,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -10738,7 +10734,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -10764,7 +10760,7 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -10790,7 +10786,7 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -10816,7 +10812,7 @@
       <c r="W31"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -10842,7 +10838,7 @@
       <c r="W32"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -10868,7 +10864,7 @@
       <c r="W33"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -10894,7 +10890,7 @@
       <c r="W34"/>
       <c r="X34"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -10920,7 +10916,7 @@
       <c r="W35"/>
       <c r="X35"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -10946,7 +10942,7 @@
       <c r="W36"/>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -10972,7 +10968,7 @@
       <c r="W37"/>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -10998,7 +10994,7 @@
       <c r="W38"/>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -11024,7 +11020,7 @@
       <c r="W39"/>
       <c r="X39"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -11050,7 +11046,7 @@
       <c r="W40"/>
       <c r="X40"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -11076,7 +11072,7 @@
       <c r="W41"/>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -11102,7 +11098,7 @@
       <c r="W42"/>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -11128,7 +11124,7 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -11154,7 +11150,7 @@
       <c r="W44"/>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -11180,7 +11176,7 @@
       <c r="W45"/>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -11206,7 +11202,7 @@
       <c r="W46"/>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -11232,7 +11228,7 @@
       <c r="W47"/>
       <c r="X47"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -11258,7 +11254,7 @@
       <c r="W48"/>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -11284,7 +11280,7 @@
       <c r="W49"/>
       <c r="X49"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -11310,7 +11306,7 @@
       <c r="W50"/>
       <c r="X50"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -11336,7 +11332,7 @@
       <c r="W51"/>
       <c r="X51"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -11362,7 +11358,7 @@
       <c r="W52"/>
       <c r="X52"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -11388,7 +11384,7 @@
       <c r="W53"/>
       <c r="X53"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -11414,7 +11410,7 @@
       <c r="W54"/>
       <c r="X54"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -11440,7 +11436,7 @@
       <c r="W55"/>
       <c r="X55"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -11466,7 +11462,7 @@
       <c r="W56"/>
       <c r="X56"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -11492,7 +11488,7 @@
       <c r="W57"/>
       <c r="X57"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -11518,7 +11514,7 @@
       <c r="W58"/>
       <c r="X58"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -11544,7 +11540,7 @@
       <c r="W59"/>
       <c r="X59"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -11570,7 +11566,7 @@
       <c r="W60"/>
       <c r="X60"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -11596,7 +11592,7 @@
       <c r="W61"/>
       <c r="X61"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -11622,7 +11618,7 @@
       <c r="W62"/>
       <c r="X62"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -11648,7 +11644,7 @@
       <c r="W63"/>
       <c r="X63"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -11674,7 +11670,7 @@
       <c r="W64"/>
       <c r="X64"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -11700,7 +11696,7 @@
       <c r="W65"/>
       <c r="X65"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -11726,7 +11722,7 @@
       <c r="W66"/>
       <c r="X66"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -11752,7 +11748,7 @@
       <c r="W67"/>
       <c r="X67"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -11778,7 +11774,7 @@
       <c r="W68"/>
       <c r="X68"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -11804,7 +11800,7 @@
       <c r="W69"/>
       <c r="X69"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -11830,7 +11826,7 @@
       <c r="W70"/>
       <c r="X70"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -11856,7 +11852,7 @@
       <c r="W71"/>
       <c r="X71"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -11882,7 +11878,7 @@
       <c r="W72"/>
       <c r="X72"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -11908,7 +11904,7 @@
       <c r="W73"/>
       <c r="X73"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -11934,7 +11930,7 @@
       <c r="W74"/>
       <c r="X74"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -11960,7 +11956,7 @@
       <c r="W75"/>
       <c r="X75"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -11986,7 +11982,7 @@
       <c r="W76"/>
       <c r="X76"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -12012,7 +12008,7 @@
       <c r="W77"/>
       <c r="X77"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -12038,7 +12034,7 @@
       <c r="W78"/>
       <c r="X78"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -12064,7 +12060,7 @@
       <c r="W79"/>
       <c r="X79"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -12090,7 +12086,7 @@
       <c r="W80"/>
       <c r="X80"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -12116,7 +12112,7 @@
       <c r="W81"/>
       <c r="X81"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -12142,7 +12138,7 @@
       <c r="W82"/>
       <c r="X82"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -12168,7 +12164,7 @@
       <c r="W83"/>
       <c r="X83"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -12194,7 +12190,7 @@
       <c r="W84"/>
       <c r="X84"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -12220,7 +12216,7 @@
       <c r="W85"/>
       <c r="X85"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -12246,7 +12242,7 @@
       <c r="W86"/>
       <c r="X86"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -12272,7 +12268,7 @@
       <c r="W87"/>
       <c r="X87"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -12298,7 +12294,7 @@
       <c r="W88"/>
       <c r="X88"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -12324,7 +12320,7 @@
       <c r="W89"/>
       <c r="X89"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -12350,7 +12346,7 @@
       <c r="W90"/>
       <c r="X90"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -12376,7 +12372,7 @@
       <c r="W91"/>
       <c r="X91"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -12402,7 +12398,7 @@
       <c r="W92"/>
       <c r="X92"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -12428,7 +12424,7 @@
       <c r="W93"/>
       <c r="X93"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -12454,7 +12450,7 @@
       <c r="W94"/>
       <c r="X94"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -12480,7 +12476,7 @@
       <c r="W95"/>
       <c r="X95"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -12506,7 +12502,7 @@
       <c r="W96"/>
       <c r="X96"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -12532,7 +12528,7 @@
       <c r="W97"/>
       <c r="X97"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -12558,7 +12554,7 @@
       <c r="W98"/>
       <c r="X98"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -12584,7 +12580,7 @@
       <c r="W99"/>
       <c r="X99"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -12610,7 +12606,7 @@
       <c r="W100"/>
       <c r="X100"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -12636,7 +12632,7 @@
       <c r="W101"/>
       <c r="X101"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -12680,24 +12676,24 @@
       <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.53125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.53125" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:16" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="str">
         <f>UPPER(DATA!$A$3)&amp;" ANALYSIS SUMMARY"</f>
         <v xml:space="preserve"> ANALYSIS SUMMARY</v>
@@ -12710,13 +12706,13 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="str">
         <f>"ID: "&amp;DATA!$B$3</f>
         <v xml:space="preserve">ID: </v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -12730,7 +12726,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -12739,7 +12735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -12751,7 +12747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -12763,7 +12759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -12772,12 +12768,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -12787,7 +12783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -12799,7 +12795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -12811,7 +12807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -12823,7 +12819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -12835,7 +12831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -12847,7 +12843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="str">
         <f>IF(DATA!$A$3="file", "Unsupported", "")</f>
         <v/>
@@ -12860,7 +12856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q3),"",DATA!$Q3)</f>
         <v/>
@@ -12906,7 +12902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -13010,7 +13006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -13063,7 +13059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -13116,7 +13112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q8),"",DATA!$Q8)</f>
         <v/>
@@ -13162,7 +13158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
@@ -13213,7 +13209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -13266,7 +13262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>36</v>
       </c>
@@ -13319,7 +13315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
@@ -13372,7 +13368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q13),"",DATA!$Q13)</f>
         <v/>
@@ -13415,7 +13411,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q14),"",DATA!$Q14)</f>
         <v/>
@@ -13458,7 +13454,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q15),"",DATA!$Q15)</f>
         <v/>
@@ -13501,7 +13497,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q16),"",DATA!$Q16)</f>
         <v/>
@@ -13544,7 +13540,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q17),"",DATA!$Q17)</f>
         <v/>
@@ -13587,7 +13583,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q18),"",DATA!$Q18)</f>
         <v/>
@@ -13630,7 +13626,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q19),"",DATA!$Q19)</f>
         <v/>
@@ -13673,7 +13669,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q20),"",DATA!$Q20)</f>
         <v/>
@@ -13716,7 +13712,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q21),"",DATA!$Q21)</f>
         <v/>
@@ -13759,7 +13755,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q22),"",DATA!$Q22)</f>
         <v/>
@@ -13799,7 +13795,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q23),"",DATA!$Q23)</f>
         <v/>
@@ -13833,7 +13829,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q24),"",DATA!$Q24)</f>
         <v/>
@@ -13867,7 +13863,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q25),"",DATA!$Q25)</f>
         <v/>
@@ -13901,7 +13897,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q26),"",DATA!$Q26)</f>
         <v/>
@@ -13935,7 +13931,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q27),"",DATA!$Q27)</f>
         <v/>
@@ -13969,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="e">
         <f t="shared" ref="B101:B106" si="0">IF(OR(ISBLANK(B11),C11&lt;1),NA(),B11)</f>
         <v>#N/A</v>
@@ -13979,7 +13975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -13989,7 +13985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -13999,7 +13995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -14009,7 +14005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -14019,7 +14015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14029,7 +14025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
         <v>22</v>
       </c>
@@ -14038,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
         <v>23</v>
       </c>
@@ -14046,7 +14042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>25</v>
       </c>
@@ -14054,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>26</v>
       </c>
@@ -14062,7 +14058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>27</v>
       </c>
@@ -14070,7 +14066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
         <v>28</v>
       </c>
@@ -14079,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
         <v>29</v>
       </c>
@@ -14087,7 +14083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>30</v>
       </c>
@@ -14096,7 +14092,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>31</v>
       </c>
@@ -14104,7 +14100,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
         <v>32</v>
       </c>
@@ -14113,7 +14109,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>33</v>
       </c>
@@ -14122,7 +14118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
         <v>34</v>
       </c>
@@ -14203,24 +14199,24 @@
       <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.53125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.53125" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:16" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="str">
         <f>UPPER(DATA!$A$3)&amp;" ANALYSIS SUMMARY"</f>
         <v xml:space="preserve"> ANALYSIS SUMMARY</v>
@@ -14233,13 +14229,13 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="str">
         <f>"ID: "&amp;DATA!$B$3</f>
         <v xml:space="preserve">ID: </v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -14253,7 +14249,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -14262,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -14274,7 +14270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -14286,12 +14282,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -14301,7 +14297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -14313,7 +14309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -14325,7 +14321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -14337,7 +14333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -14349,7 +14345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -14361,7 +14357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="str">
         <f>IF(DATA!$A$3="file", "Unsupported", "")</f>
         <v/>
@@ -14374,7 +14370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
@@ -14425,7 +14421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -14478,7 +14474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -14531,7 +14527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -14584,7 +14580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q7),"",DATA!$Q7)</f>
         <v/>
@@ -14630,7 +14626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
@@ -14681,7 +14677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -14734,7 +14730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
@@ -14787,7 +14783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
@@ -14840,7 +14836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q12),"",DATA!$Q12)</f>
         <v/>
@@ -14886,7 +14882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q13),"",DATA!$Q13)</f>
         <v/>
@@ -14929,7 +14925,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q14),"",DATA!$Q14)</f>
         <v/>
@@ -14972,7 +14968,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q15),"",DATA!$Q15)</f>
         <v/>
@@ -15015,7 +15011,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q16),"",DATA!$Q16)</f>
         <v/>
@@ -15058,7 +15054,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q17),"",DATA!$Q17)</f>
         <v/>
@@ -15101,7 +15097,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q18),"",DATA!$Q18)</f>
         <v/>
@@ -15144,7 +15140,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q19),"",DATA!$Q19)</f>
         <v/>
@@ -15187,7 +15183,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q20),"",DATA!$Q20)</f>
         <v/>
@@ -15230,7 +15226,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q21),"",DATA!$Q21)</f>
         <v/>
@@ -15273,7 +15269,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q22),"",DATA!$Q22)</f>
         <v/>
@@ -15313,7 +15309,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q23),"",DATA!$Q23)</f>
         <v/>
@@ -15347,7 +15343,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q24),"",DATA!$Q24)</f>
         <v/>
@@ -15381,7 +15377,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q25),"",DATA!$Q25)</f>
         <v/>
@@ -15415,7 +15411,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q26),"",DATA!$Q26)</f>
         <v/>
@@ -15449,7 +15445,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
@@ -15488,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G3),"",DATA!$G3)</f>
         <v/>
@@ -15498,7 +15494,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G4),"",DATA!$G4)</f>
         <v/>
@@ -15508,7 +15504,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G5),"",DATA!$G5)</f>
         <v/>
@@ -15518,7 +15514,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G6),"",DATA!$G6)</f>
         <v/>
@@ -15528,7 +15524,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G7),"",DATA!$G7)</f>
         <v/>
@@ -15538,7 +15534,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G8),"",DATA!$G8)</f>
         <v/>
@@ -15548,7 +15544,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G9),"",DATA!$G9)</f>
         <v/>
@@ -15558,7 +15554,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G10),"",DATA!$G10)</f>
         <v/>
@@ -15568,7 +15564,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G11),"",DATA!$G11)</f>
         <v/>
@@ -15578,7 +15574,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G12),"",DATA!$G12)</f>
         <v/>
@@ -15588,7 +15584,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G13),"",DATA!$G13)</f>
         <v/>
@@ -15598,7 +15594,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G14),"",DATA!$G14)</f>
         <v/>
@@ -15608,7 +15604,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G15),"",DATA!$G15)</f>
         <v/>
@@ -15618,7 +15614,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G16),"",DATA!$G16)</f>
         <v/>
@@ -15628,7 +15624,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G17),"",DATA!$G17)</f>
         <v/>
@@ -15638,7 +15634,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G18),"",DATA!$G18)</f>
         <v/>
@@ -15648,7 +15644,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G19),"",DATA!$G19)</f>
         <v/>
@@ -15658,7 +15654,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G20),"",DATA!$G20)</f>
         <v/>
@@ -15668,7 +15664,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G21),"",DATA!$G21)</f>
         <v/>
@@ -15678,7 +15674,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G22),"",DATA!$G22)</f>
         <v/>
@@ -15688,7 +15684,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G23),"",DATA!$G23)</f>
         <v/>
@@ -15698,7 +15694,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G24),"",DATA!$G24)</f>
         <v/>
@@ -15708,7 +15704,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G25),"",DATA!$G25)</f>
         <v/>
@@ -15718,7 +15714,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G26),"",DATA!$G26)</f>
         <v/>
@@ -15728,7 +15724,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G27),"",DATA!$G27)</f>
         <v/>
@@ -15738,7 +15734,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G28),"",DATA!$G28)</f>
         <v/>
@@ -15748,7 +15744,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G29),"",DATA!$G29)</f>
         <v/>
@@ -15758,7 +15754,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G30),"",DATA!$G30)</f>
         <v/>
@@ -15768,7 +15764,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G31),"",DATA!$G31)</f>
         <v/>
@@ -15778,7 +15774,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G32),"",DATA!$G32)</f>
         <v/>
@@ -15788,7 +15784,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G33),"",DATA!$G33)</f>
         <v/>
@@ -15798,7 +15794,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G34),"",DATA!$G34)</f>
         <v/>
@@ -15808,7 +15804,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G35),"",DATA!$G35)</f>
         <v/>
@@ -15818,7 +15814,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G36),"",DATA!$G36)</f>
         <v/>
@@ -15828,7 +15824,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G37),"",DATA!$G37)</f>
         <v/>
@@ -15838,7 +15834,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G38),"",DATA!$G38)</f>
         <v/>
@@ -15848,7 +15844,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G39),"",DATA!$G39)</f>
         <v/>
@@ -15858,7 +15854,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G40),"",DATA!$G40)</f>
         <v/>
@@ -15868,7 +15864,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G41),"",DATA!$G41)</f>
         <v/>
@@ -15878,7 +15874,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G42),"",DATA!$G42)</f>
         <v/>
@@ -15888,7 +15884,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G43),"",DATA!$G43)</f>
         <v/>
@@ -15898,7 +15894,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G44),"",DATA!$G44)</f>
         <v/>
@@ -15908,7 +15904,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G45),"",DATA!$G45)</f>
         <v/>
@@ -15918,7 +15914,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G46),"",DATA!$G46)</f>
         <v/>
@@ -15928,7 +15924,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G47),"",DATA!$G47)</f>
         <v/>
@@ -15938,7 +15934,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G48),"",DATA!$G48)</f>
         <v/>
@@ -15948,7 +15944,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G49),"",DATA!$G49)</f>
         <v/>
@@ -15958,7 +15954,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G50),"",DATA!$G50)</f>
         <v/>
@@ -15968,7 +15964,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G51),"",DATA!$G51)</f>
         <v/>
@@ -15978,7 +15974,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G52),"",DATA!$G52)</f>
         <v/>
@@ -15988,7 +15984,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="e">
         <f t="shared" ref="B100:B105" si="0">IF(OR(ISBLANK(B10),C10&lt;1),NA(),B10)</f>
         <v>#N/A</v>
@@ -15998,7 +15994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -16008,7 +16004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -16018,7 +16014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -16028,7 +16024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -16038,7 +16034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -16048,7 +16044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>22</v>
       </c>
@@ -16057,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
         <v>23</v>
       </c>
@@ -16065,7 +16061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
         <v>25</v>
       </c>
@@ -16073,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>26</v>
       </c>
@@ -16081,7 +16077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>27</v>
       </c>
@@ -16089,7 +16085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>28</v>
       </c>
@@ -16098,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>29</v>
       </c>
@@ -16106,7 +16102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>30</v>
       </c>
@@ -16115,7 +16111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>31</v>
       </c>
@@ -16123,7 +16119,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>32</v>
       </c>
@@ -16132,7 +16128,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
         <v>33</v>
       </c>
@@ -16141,7 +16137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>34</v>
       </c>
@@ -16222,24 +16218,24 @@
       <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.06640625" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.53125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.53125" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:16" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="str">
         <f>UPPER(DATA!$A$3)&amp;" ANALYSIS SUMMARY"</f>
         <v xml:space="preserve"> ANALYSIS SUMMARY</v>
@@ -16252,13 +16248,13 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="str">
         <f>"ID: "&amp;DATA!$B$3</f>
         <v xml:space="preserve">ID: </v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -16272,7 +16268,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
@@ -16281,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
@@ -16293,7 +16289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
@@ -16305,7 +16301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
@@ -16317,12 +16313,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -16332,7 +16328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -16344,7 +16340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -16356,7 +16352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -16368,7 +16364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -16380,7 +16376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -16392,7 +16388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q3),"",DATA!$Q3)</f>
         <v/>
@@ -16438,7 +16434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
@@ -16489,7 +16485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
@@ -16542,7 +16538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -16595,7 +16591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q7),"",DATA!$Q7)</f>
         <v/>
@@ -16641,7 +16637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
@@ -16692,7 +16688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -16745,7 +16741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
@@ -16798,7 +16794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
@@ -16851,7 +16847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q12),"",DATA!$Q12)</f>
         <v/>
@@ -16897,7 +16893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q13),"",DATA!$Q13)</f>
         <v/>
@@ -16940,7 +16936,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q14),"",DATA!$Q14)</f>
         <v/>
@@ -16983,7 +16979,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q15),"",DATA!$Q15)</f>
         <v/>
@@ -17026,7 +17022,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q16),"",DATA!$Q16)</f>
         <v/>
@@ -17069,7 +17065,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q17),"",DATA!$Q17)</f>
         <v/>
@@ -17112,7 +17108,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q18),"",DATA!$Q18)</f>
         <v/>
@@ -17155,7 +17151,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q19),"",DATA!$Q19)</f>
         <v/>
@@ -17198,7 +17194,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q20),"",DATA!$Q20)</f>
         <v/>
@@ -17241,7 +17237,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q21),"",DATA!$Q21)</f>
         <v/>
@@ -17284,7 +17280,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q22),"",DATA!$Q22)</f>
         <v/>
@@ -17324,7 +17320,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q23),"",DATA!$Q23)</f>
         <v/>
@@ -17358,7 +17354,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q24),"",DATA!$Q24)</f>
         <v/>
@@ -17392,7 +17388,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q25),"",DATA!$Q25)</f>
         <v/>
@@ -17426,7 +17422,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q26),"",DATA!$Q26)</f>
         <v/>
@@ -17460,7 +17456,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>44</v>
       </c>
@@ -17499,446 +17495,446 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W3),"",DATA!$W3)</f>
+        <f>IF(ISBLANK(DATA!$W3),"",DATA!$W3)&amp;IF(ISBLANK(DATA!$X3),"",": "&amp;DATA!$X3)</f>
         <v/>
       </c>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W4),"",DATA!$W4)</f>
+        <f>IF(ISBLANK(DATA!$W4),"",DATA!$W4)&amp;IF(ISBLANK(DATA!$X4),"",": "&amp;DATA!$X4)</f>
         <v/>
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W5),"",DATA!$W5)</f>
+        <f>IF(ISBLANK(DATA!$W5),"",DATA!$W5)&amp;IF(ISBLANK(DATA!$X5),"",": "&amp;DATA!$X5)</f>
         <v/>
       </c>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W6),"",DATA!$W6)</f>
+        <f>IF(ISBLANK(DATA!$W6),"",DATA!$W6)&amp;IF(ISBLANK(DATA!$X6),"",": "&amp;DATA!$X6)</f>
         <v/>
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W7),"",DATA!$W7)</f>
+        <f>IF(ISBLANK(DATA!$W7),"",DATA!$W7)&amp;IF(ISBLANK(DATA!$X7),"",": "&amp;DATA!$X7)</f>
         <v/>
       </c>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W8),"",DATA!$W8)</f>
+        <f>IF(ISBLANK(DATA!$W8),"",DATA!$W8)&amp;IF(ISBLANK(DATA!$X8),"",": "&amp;DATA!$X8)</f>
         <v/>
       </c>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W9),"",DATA!$W9)</f>
+        <f>IF(ISBLANK(DATA!$W9),"",DATA!$W9)&amp;IF(ISBLANK(DATA!$X9),"",": "&amp;DATA!$X9)</f>
         <v/>
       </c>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W10),"",DATA!$W10)</f>
+        <f>IF(ISBLANK(DATA!$W10),"",DATA!$W10)&amp;IF(ISBLANK(DATA!$X10),"",": "&amp;DATA!$X10)</f>
         <v/>
       </c>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W11),"",DATA!$W11)</f>
+        <f>IF(ISBLANK(DATA!$W11),"",DATA!$W11)&amp;IF(ISBLANK(DATA!$X11),"",": "&amp;DATA!$X11)</f>
         <v/>
       </c>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W12),"",DATA!$W12)</f>
+        <f>IF(ISBLANK(DATA!$W12),"",DATA!$W12)&amp;IF(ISBLANK(DATA!$X12),"",": "&amp;DATA!$X12)</f>
         <v/>
       </c>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W13),"",DATA!$W13)</f>
+        <f>IF(ISBLANK(DATA!$W13),"",DATA!$W13)&amp;IF(ISBLANK(DATA!$X13),"",": "&amp;DATA!$X13)</f>
         <v/>
       </c>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W14),"",DATA!$W14)</f>
+        <f>IF(ISBLANK(DATA!$W14),"",DATA!$W14)&amp;IF(ISBLANK(DATA!$X14),"",": "&amp;DATA!$X14)</f>
         <v/>
       </c>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W15),"",DATA!$W15)</f>
+        <f>IF(ISBLANK(DATA!$W15),"",DATA!$W15)&amp;IF(ISBLANK(DATA!$X15),"",": "&amp;DATA!$X15)</f>
         <v/>
       </c>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W16),"",DATA!$W16)</f>
+        <f>IF(ISBLANK(DATA!$W16),"",DATA!$W16)&amp;IF(ISBLANK(DATA!$X16),"",": "&amp;DATA!$X16)</f>
         <v/>
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W17),"",DATA!$W17)</f>
+        <f>IF(ISBLANK(DATA!$W17),"",DATA!$W17)&amp;IF(ISBLANK(DATA!$X17),"",": "&amp;DATA!$X17)</f>
         <v/>
       </c>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W18),"",DATA!$W18)</f>
+        <f>IF(ISBLANK(DATA!$W18),"",DATA!$W18)&amp;IF(ISBLANK(DATA!$X18),"",": "&amp;DATA!$X18)</f>
         <v/>
       </c>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W19),"",DATA!$W19)</f>
+        <f>IF(ISBLANK(DATA!$W19),"",DATA!$W19)&amp;IF(ISBLANK(DATA!$X19),"",": "&amp;DATA!$X19)</f>
         <v/>
       </c>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W20),"",DATA!$W20)</f>
+        <f>IF(ISBLANK(DATA!$W20),"",DATA!$W20)&amp;IF(ISBLANK(DATA!$X20),"",": "&amp;DATA!$X20)</f>
         <v/>
       </c>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W21),"",DATA!$W21)</f>
+        <f>IF(ISBLANK(DATA!$W21),"",DATA!$W21)&amp;IF(ISBLANK(DATA!$X21),"",": "&amp;DATA!$X21)</f>
         <v/>
       </c>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W22),"",DATA!$W22)</f>
+        <f>IF(ISBLANK(DATA!$W22),"",DATA!$W22)&amp;IF(ISBLANK(DATA!$X22),"",": "&amp;DATA!$X22)</f>
         <v/>
       </c>
       <c r="C60" s="11"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W23),"",DATA!$W23)</f>
+        <f>IF(ISBLANK(DATA!$W23),"",DATA!$W23)&amp;IF(ISBLANK(DATA!$X23),"",": "&amp;DATA!$X23)</f>
         <v/>
       </c>
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W24),"",DATA!$W24)</f>
+        <f>IF(ISBLANK(DATA!$W24),"",DATA!$W24)&amp;IF(ISBLANK(DATA!$X24),"",": "&amp;DATA!$X24)</f>
         <v/>
       </c>
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W25),"",DATA!$W25)</f>
+        <f>IF(ISBLANK(DATA!$W25),"",DATA!$W25)&amp;IF(ISBLANK(DATA!$X25),"",": "&amp;DATA!$X25)</f>
         <v/>
       </c>
       <c r="C63" s="11"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W26),"",DATA!$W26)</f>
+        <f>IF(ISBLANK(DATA!$W26),"",DATA!$W26)&amp;IF(ISBLANK(DATA!$X26),"",": "&amp;DATA!$X26)</f>
         <v/>
       </c>
       <c r="C64" s="11"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W27),"",DATA!$W27)</f>
+        <f>IF(ISBLANK(DATA!$W27),"",DATA!$W27)&amp;IF(ISBLANK(DATA!$X27),"",": "&amp;DATA!$X27)</f>
         <v/>
       </c>
       <c r="C65" s="11"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W28),"",DATA!$W28)</f>
+        <f>IF(ISBLANK(DATA!$W28),"",DATA!$W28)&amp;IF(ISBLANK(DATA!$X28),"",": "&amp;DATA!$X28)</f>
         <v/>
       </c>
       <c r="C66" s="11"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W29),"",DATA!$W29)</f>
+        <f>IF(ISBLANK(DATA!$W29),"",DATA!$W29)&amp;IF(ISBLANK(DATA!$X29),"",": "&amp;DATA!$X29)</f>
         <v/>
       </c>
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W30),"",DATA!$W30)</f>
+        <f>IF(ISBLANK(DATA!$W30),"",DATA!$W30)&amp;IF(ISBLANK(DATA!$X30),"",": "&amp;DATA!$X30)</f>
         <v/>
       </c>
       <c r="C68" s="11"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W31),"",DATA!$W31)</f>
+        <f>IF(ISBLANK(DATA!$W31),"",DATA!$W31)&amp;IF(ISBLANK(DATA!$X31),"",": "&amp;DATA!$X31)</f>
         <v/>
       </c>
       <c r="C69" s="11"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W32),"",DATA!$W32)</f>
+        <f>IF(ISBLANK(DATA!$W32),"",DATA!$W32)&amp;IF(ISBLANK(DATA!$X32),"",": "&amp;DATA!$X32)</f>
         <v/>
       </c>
       <c r="C70" s="11"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W33),"",DATA!$W33)</f>
+        <f>IF(ISBLANK(DATA!$W33),"",DATA!$W33)&amp;IF(ISBLANK(DATA!$X33),"",": "&amp;DATA!$X33)</f>
         <v/>
       </c>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W34),"",DATA!$W34)</f>
+        <f>IF(ISBLANK(DATA!$W34),"",DATA!$W34)&amp;IF(ISBLANK(DATA!$X34),"",": "&amp;DATA!$X34)</f>
         <v/>
       </c>
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W35),"",DATA!$W35)</f>
+        <f>IF(ISBLANK(DATA!$W35),"",DATA!$W35)&amp;IF(ISBLANK(DATA!$X35),"",": "&amp;DATA!$X35)</f>
         <v/>
       </c>
       <c r="C73" s="11"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W36),"",DATA!$W36)</f>
+        <f>IF(ISBLANK(DATA!$W36),"",DATA!$W36)&amp;IF(ISBLANK(DATA!$X36),"",": "&amp;DATA!$X36)</f>
         <v/>
       </c>
       <c r="C74" s="11"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W37),"",DATA!$W37)</f>
+        <f>IF(ISBLANK(DATA!$W37),"",DATA!$W37)&amp;IF(ISBLANK(DATA!$X37),"",": "&amp;DATA!$X37)</f>
         <v/>
       </c>
       <c r="C75" s="11"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W38),"",DATA!$W38)</f>
+        <f>IF(ISBLANK(DATA!$W38),"",DATA!$W38)&amp;IF(ISBLANK(DATA!$X38),"",": "&amp;DATA!$X38)</f>
         <v/>
       </c>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W39),"",DATA!$W39)</f>
+        <f>IF(ISBLANK(DATA!$W39),"",DATA!$W39)&amp;IF(ISBLANK(DATA!$X39),"",": "&amp;DATA!$X39)</f>
         <v/>
       </c>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W40),"",DATA!$W40)</f>
+        <f>IF(ISBLANK(DATA!$W40),"",DATA!$W40)&amp;IF(ISBLANK(DATA!$X40),"",": "&amp;DATA!$X40)</f>
         <v/>
       </c>
       <c r="C78" s="11"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W41),"",DATA!$W41)</f>
+        <f>IF(ISBLANK(DATA!$W41),"",DATA!$W41)&amp;IF(ISBLANK(DATA!$X41),"",": "&amp;DATA!$X41)</f>
         <v/>
       </c>
       <c r="C79" s="11"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W42),"",DATA!$W42)</f>
+        <f>IF(ISBLANK(DATA!$W42),"",DATA!$W42)&amp;IF(ISBLANK(DATA!$X42),"",": "&amp;DATA!$X42)</f>
         <v/>
       </c>
       <c r="C80" s="11"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W43),"",DATA!$W43)</f>
+        <f>IF(ISBLANK(DATA!$W43),"",DATA!$W43)&amp;IF(ISBLANK(DATA!$X43),"",": "&amp;DATA!$X43)</f>
         <v/>
       </c>
       <c r="C81" s="11"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W44),"",DATA!$W44)</f>
+        <f>IF(ISBLANK(DATA!$W44),"",DATA!$W44)&amp;IF(ISBLANK(DATA!$X44),"",": "&amp;DATA!$X44)</f>
         <v/>
       </c>
       <c r="C82" s="11"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W45),"",DATA!$W45)</f>
+        <f>IF(ISBLANK(DATA!$W45),"",DATA!$W45)&amp;IF(ISBLANK(DATA!$X45),"",": "&amp;DATA!$X45)</f>
         <v/>
       </c>
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W46),"",DATA!$W46)</f>
+        <f>IF(ISBLANK(DATA!$W46),"",DATA!$W46)&amp;IF(ISBLANK(DATA!$X46),"",": "&amp;DATA!$X46)</f>
         <v/>
       </c>
       <c r="C84" s="11"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W47),"",DATA!$W47)</f>
+        <f>IF(ISBLANK(DATA!$W47),"",DATA!$W47)&amp;IF(ISBLANK(DATA!$X47),"",": "&amp;DATA!$X47)</f>
         <v/>
       </c>
       <c r="C85" s="11"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W48),"",DATA!$W48)</f>
+        <f>IF(ISBLANK(DATA!$W48),"",DATA!$W48)&amp;IF(ISBLANK(DATA!$X48),"",": "&amp;DATA!$X48)</f>
         <v/>
       </c>
       <c r="C86" s="11"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W49),"",DATA!$W49)</f>
+        <f>IF(ISBLANK(DATA!$W49),"",DATA!$W49)&amp;IF(ISBLANK(DATA!$X49),"",": "&amp;DATA!$X49)</f>
         <v/>
       </c>
       <c r="C87" s="11"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W50),"",DATA!$W50)</f>
+        <f>IF(ISBLANK(DATA!$W50),"",DATA!$W50)&amp;IF(ISBLANK(DATA!$X50),"",": "&amp;DATA!$X50)</f>
         <v/>
       </c>
       <c r="C88" s="11"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W51),"",DATA!$W51)</f>
+        <f>IF(ISBLANK(DATA!$W51),"",DATA!$W51)&amp;IF(ISBLANK(DATA!$X51),"",": "&amp;DATA!$X51)</f>
         <v/>
       </c>
       <c r="C89" s="11"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W52),"",DATA!$W52)</f>
+        <f>IF(ISBLANK(DATA!$W52),"",DATA!$W52)&amp;IF(ISBLANK(DATA!$X52),"",": "&amp;DATA!$X52)</f>
         <v/>
       </c>
       <c r="C90" s="11"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W53),"",DATA!$W53)</f>
+        <f>IF(ISBLANK(DATA!$W53),"",DATA!$W53)&amp;IF(ISBLANK(DATA!$X53),"",": "&amp;DATA!$X53)</f>
         <v/>
       </c>
       <c r="C91" s="11"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W54),"",DATA!$W54)</f>
+        <f>IF(ISBLANK(DATA!$W54),"",DATA!$W54)&amp;IF(ISBLANK(DATA!$X54),"",": "&amp;DATA!$X54)</f>
         <v/>
       </c>
       <c r="C92" s="11"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W55),"",DATA!$W55)</f>
+        <f>IF(ISBLANK(DATA!$W55),"",DATA!$W55)&amp;IF(ISBLANK(DATA!$X55),"",": "&amp;DATA!$X55)</f>
         <v/>
       </c>
       <c r="C93" s="11"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W56),"",DATA!$W56)</f>
+        <f>IF(ISBLANK(DATA!$W56),"",DATA!$W56)&amp;IF(ISBLANK(DATA!$X56),"",": "&amp;DATA!$X56)</f>
         <v/>
       </c>
       <c r="C94" s="11"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W57),"",DATA!$W57)</f>
+        <f>IF(ISBLANK(DATA!$W57),"",DATA!$W57)&amp;IF(ISBLANK(DATA!$X57),"",": "&amp;DATA!$X57)</f>
         <v/>
       </c>
       <c r="C95" s="11"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W58),"",DATA!$W58)</f>
+        <f>IF(ISBLANK(DATA!$W58),"",DATA!$W58)&amp;IF(ISBLANK(DATA!$X58),"",": "&amp;DATA!$X58)</f>
         <v/>
       </c>
       <c r="C96" s="11"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W59),"",DATA!$W59)</f>
+        <f>IF(ISBLANK(DATA!$W59),"",DATA!$W59)&amp;IF(ISBLANK(DATA!$X59),"",": "&amp;DATA!$X59)</f>
         <v/>
       </c>
       <c r="C97" s="11"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W60),"",DATA!$W60)</f>
+        <f>IF(ISBLANK(DATA!$W60),"",DATA!$W60)&amp;IF(ISBLANK(DATA!$X60),"",": "&amp;DATA!$X60)</f>
         <v/>
       </c>
       <c r="C98" s="11"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W61),"",DATA!$W61)</f>
+        <f>IF(ISBLANK(DATA!$W61),"",DATA!$W61)&amp;IF(ISBLANK(DATA!$X61),"",": "&amp;DATA!$X61)</f>
         <v/>
       </c>
       <c r="C99" s="13"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W62),"",DATA!$W62)</f>
+        <f>IF(ISBLANK(DATA!$W62),"",DATA!$W62)&amp;IF(ISBLANK(DATA!$X62),"",": "&amp;DATA!$X62)</f>
         <v/>
       </c>
       <c r="C100" s="13"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="str">
-        <f>IF(ISBLANK(DATA!$W63),"",DATA!$W63)</f>
+        <f>IF(ISBLANK(DATA!$W63),"",DATA!$W63)&amp;IF(ISBLANK(DATA!$X63),"",": "&amp;DATA!$X63)</f>
         <v/>
       </c>
       <c r="C101" s="13"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="e">
         <f t="shared" ref="B105:B110" si="0">IF(OR(ISBLANK(B11),C11&lt;1),NA(),B11)</f>
         <v>#N/A</v>
@@ -17948,7 +17944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -17958,7 +17954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -17968,7 +17964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -17978,7 +17974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -17988,7 +17984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -17998,7 +17994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" s="9" t="s">
         <v>22</v>
       </c>
@@ -18007,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>23</v>
       </c>
@@ -18015,7 +18011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>25</v>
       </c>
@@ -18023,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>26</v>
       </c>
@@ -18031,7 +18027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>27</v>
       </c>
@@ -18039,7 +18035,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
         <v>28</v>
       </c>
@@ -18048,7 +18044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
         <v>29</v>
       </c>
@@ -18056,7 +18052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
         <v>30</v>
       </c>
@@ -18065,7 +18061,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>31</v>
       </c>
@@ -18073,7 +18069,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
         <v>32</v>
       </c>
@@ -18082,7 +18078,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
         <v>33</v>
       </c>
@@ -18091,7 +18087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
         <v>34</v>
       </c>
@@ -18149,24 +18145,24 @@
       <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.53125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.53125" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:16" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="str">
         <f>UPPER(DATA!$A$3)&amp;" ANALYSIS SUMMARY"</f>
         <v xml:space="preserve"> ANALYSIS SUMMARY</v>
@@ -18179,13 +18175,13 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="str">
         <f>"ID: "&amp;DATA!$B$3</f>
         <v xml:space="preserve">ID: </v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -18199,7 +18195,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -18208,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -18220,7 +18216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -18232,12 +18228,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -18247,7 +18243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -18259,7 +18255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -18283,7 +18279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -18295,7 +18291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -18307,7 +18303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="str">
         <f>IF(DATA!$A$3="file", "Unsupported", "")</f>
         <v/>
@@ -18320,7 +18316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
@@ -18371,7 +18367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -18424,7 +18420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
@@ -18477,7 +18473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -18530,7 +18526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q7),"",DATA!$Q7)</f>
         <v/>
@@ -18576,7 +18572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
@@ -18627,7 +18623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -18680,7 +18676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
@@ -18733,7 +18729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
@@ -18786,7 +18782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q12),"",DATA!$Q12)</f>
         <v/>
@@ -18832,7 +18828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q13),"",DATA!$Q13)</f>
         <v/>
@@ -18875,7 +18871,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q14),"",DATA!$Q14)</f>
         <v/>
@@ -18918,7 +18914,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q15),"",DATA!$Q15)</f>
         <v/>
@@ -18961,7 +18957,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q16),"",DATA!$Q16)</f>
         <v/>
@@ -19004,7 +19000,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q17),"",DATA!$Q17)</f>
         <v/>
@@ -19047,7 +19043,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q18),"",DATA!$Q18)</f>
         <v/>
@@ -19090,7 +19086,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q19),"",DATA!$Q19)</f>
         <v/>
@@ -19133,7 +19129,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q20),"",DATA!$Q20)</f>
         <v/>
@@ -19176,7 +19172,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q21),"",DATA!$Q21)</f>
         <v/>
@@ -19219,7 +19215,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q22),"",DATA!$Q22)</f>
         <v/>
@@ -19259,7 +19255,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q23),"",DATA!$Q23)</f>
         <v/>
@@ -19293,7 +19289,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q24),"",DATA!$Q24)</f>
         <v/>
@@ -19327,7 +19323,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q25),"",DATA!$Q25)</f>
         <v/>
@@ -19361,7 +19357,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="str">
         <f>IF(ISBLANK(DATA!$Q26),"",DATA!$Q26)</f>
         <v/>
@@ -19395,7 +19391,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
@@ -19434,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G3),"",DATA!$G3)</f>
         <v/>
@@ -19444,7 +19440,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G4),"",DATA!$G4)</f>
         <v/>
@@ -19454,7 +19450,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G5),"",DATA!$G5)</f>
         <v/>
@@ -19464,7 +19460,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G6),"",DATA!$G6)</f>
         <v/>
@@ -19474,7 +19470,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="str">
         <f>IF(ISBLANK(DATA!$G7),"",DATA!$G7)</f>
         <v/>
@@ -19484,18 +19480,18 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W3),"",DATA!$W3)</f>
         <v/>
@@ -19505,7 +19501,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W4),"",DATA!$W4)</f>
         <v/>
@@ -19515,7 +19511,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W5),"",DATA!$W5)</f>
         <v/>
@@ -19525,7 +19521,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W6),"",DATA!$W6)</f>
         <v/>
@@ -19535,7 +19531,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W7),"",DATA!$W7)</f>
         <v/>
@@ -19545,7 +19541,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W8),"",DATA!$W8)</f>
         <v/>
@@ -19555,7 +19551,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W9),"",DATA!$W9)</f>
         <v/>
@@ -19565,7 +19561,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W10),"",DATA!$W10)</f>
         <v/>
@@ -19575,7 +19571,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W11),"",DATA!$W11)</f>
         <v/>
@@ -19585,7 +19581,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W12),"",DATA!$W12)</f>
         <v/>
@@ -19595,7 +19591,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W13),"",DATA!$W13)</f>
         <v/>
@@ -19605,7 +19601,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W14),"",DATA!$W14)</f>
         <v/>
@@ -19615,7 +19611,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W15),"",DATA!$W15)</f>
         <v/>
@@ -19625,7 +19621,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W16),"",DATA!$W16)</f>
         <v/>
@@ -19635,7 +19631,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W17),"",DATA!$W17)</f>
         <v/>
@@ -19645,7 +19641,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W18),"",DATA!$W18)</f>
         <v/>
@@ -19655,7 +19651,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W19),"",DATA!$W19)</f>
         <v/>
@@ -19665,7 +19661,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W20),"",DATA!$W20)</f>
         <v/>
@@ -19675,7 +19671,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W21),"",DATA!$W21)</f>
         <v/>
@@ -19685,7 +19681,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W22),"",DATA!$W22)</f>
         <v/>
@@ -19695,7 +19691,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W23),"",DATA!$W23)</f>
         <v/>
@@ -19705,7 +19701,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W24),"",DATA!$W24)</f>
         <v/>
@@ -19715,7 +19711,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W25),"",DATA!$W25)</f>
         <v/>
@@ -19725,7 +19721,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W26),"",DATA!$W26)</f>
         <v/>
@@ -19735,7 +19731,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W27),"",DATA!$W27)</f>
         <v/>
@@ -19745,7 +19741,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W28),"",DATA!$W28)</f>
         <v/>
@@ -19755,7 +19751,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W29),"",DATA!$W29)</f>
         <v/>
@@ -19765,7 +19761,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W30),"",DATA!$W30)</f>
         <v/>
@@ -19775,7 +19771,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W31),"",DATA!$W31)</f>
         <v/>
@@ -19785,7 +19781,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W32),"",DATA!$W32)</f>
         <v/>
@@ -19795,7 +19791,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W33),"",DATA!$W33)</f>
         <v/>
@@ -19805,7 +19801,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W34),"",DATA!$W34)</f>
         <v/>
@@ -19815,7 +19811,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W35),"",DATA!$W35)</f>
         <v/>
@@ -19825,7 +19821,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W36),"",DATA!$W36)</f>
         <v/>
@@ -19835,7 +19831,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W37),"",DATA!$W37)</f>
         <v/>
@@ -19845,7 +19841,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W38),"",DATA!$W38)</f>
         <v/>
@@ -19855,7 +19851,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W39),"",DATA!$W39)</f>
         <v/>
@@ -19865,7 +19861,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W40),"",DATA!$W40)</f>
         <v/>
@@ -19875,7 +19871,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W41),"",DATA!$W41)</f>
         <v/>
@@ -19885,7 +19881,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W42),"",DATA!$W42)</f>
         <v/>
@@ -19895,7 +19891,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W43),"",DATA!$W43)</f>
         <v/>
@@ -19905,7 +19901,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W44),"",DATA!$W44)</f>
         <v/>
@@ -19915,7 +19911,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W45),"",DATA!$W45)</f>
         <v/>
@@ -19925,7 +19921,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W46),"",DATA!$W46)</f>
         <v/>
@@ -19935,7 +19931,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W47),"",DATA!$W47)</f>
         <v/>
@@ -19945,7 +19941,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W48),"",DATA!$W48)</f>
         <v/>
@@ -19955,7 +19951,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W49),"",DATA!$W49)</f>
         <v/>
@@ -19965,7 +19961,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W50),"",DATA!$W50)</f>
         <v/>
@@ -19975,7 +19971,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W51),"",DATA!$W51)</f>
         <v/>
@@ -19985,7 +19981,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W52),"",DATA!$W52)</f>
         <v/>
@@ -19995,7 +19991,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W53),"",DATA!$W53)</f>
         <v/>
@@ -20005,7 +20001,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W54),"",DATA!$W54)</f>
         <v/>
@@ -20015,7 +20011,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W55),"",DATA!$W55)</f>
         <v/>
@@ -20025,7 +20021,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W56),"",DATA!$W56)</f>
         <v/>
@@ -20035,7 +20031,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W57),"",DATA!$W57)</f>
         <v/>
@@ -20045,7 +20041,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W58),"",DATA!$W58)</f>
         <v/>
@@ -20055,7 +20051,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W59),"",DATA!$W59)</f>
         <v/>
@@ -20065,7 +20061,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W60),"",DATA!$W60)</f>
         <v/>
@@ -20075,7 +20071,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W61),"",DATA!$W61)</f>
         <v/>
@@ -20085,7 +20081,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W62),"",DATA!$W62)</f>
         <v/>
@@ -20095,7 +20091,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W63),"",DATA!$W63)</f>
         <v/>
@@ -20105,7 +20101,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W64),"",DATA!$W64)</f>
         <v/>
@@ -20115,7 +20111,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="str">
         <f>IF(ISBLANK(DATA!$W65),"",DATA!$W65)</f>
         <v/>
@@ -20125,7 +20121,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="e">
         <f t="shared" ref="B112:B117" si="0">IF(OR(ISBLANK(B10),C10&lt;1),NA(),B10)</f>
         <v>#N/A</v>
@@ -20135,7 +20131,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -20145,7 +20141,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -20155,7 +20151,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -20165,7 +20161,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -20175,7 +20171,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -20185,7 +20181,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>22</v>
       </c>
@@ -20194,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
         <v>23</v>
       </c>
@@ -20202,7 +20198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
         <v>25</v>
       </c>
@@ -20210,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
         <v>26</v>
       </c>
@@ -20218,7 +20214,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
         <v>27</v>
       </c>
@@ -20226,7 +20222,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
         <v>28</v>
       </c>
@@ -20235,7 +20231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
         <v>29</v>
       </c>
@@ -20243,7 +20239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
         <v>30</v>
       </c>
@@ -20252,7 +20248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
         <v>31</v>
       </c>
@@ -20260,7 +20256,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
         <v>32</v>
       </c>
@@ -20269,7 +20265,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
         <v>33</v>
       </c>
@@ -20278,7 +20274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
